--- a/benchmarks/parallel-multi-intersect/compare.xlsx
+++ b/benchmarks/parallel-multi-intersect/compare.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Chart1" sheetId="2" r:id="rId2"/>
+    <sheet name="Chart2" sheetId="3" r:id="rId3"/>
+    <sheet name="Chart3" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,15 +33,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>bushy-base</t>
+    <t>bushy-base time</t>
   </si>
   <si>
-    <t>waves</t>
+    <t>bushy-base #intersects</t>
   </si>
   <si>
-    <t>one-share</t>
+    <t>waves time</t>
+  </si>
+  <si>
+    <t>waves #intersects</t>
+  </si>
+  <si>
+    <t>waves-share time</t>
+  </si>
+  <si>
+    <t>waves-share #intersects</t>
+  </si>
+  <si>
+    <t>one-share time</t>
+  </si>
+  <si>
+    <t>one-share #intersects</t>
   </si>
 </sst>
 </file>
@@ -1226,6 +1243,327 @@
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bushy-base #intersects</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:srgbClr val="5B9BD5"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="12700">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-7914-4869-83D7-37B1EA2838AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>waves-share #intersects</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:srgbClr val="ED7D31"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-7914-4869-83D7-37B1EA2838AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>one-share #intersects</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:srgbClr val="4472C4"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-7914-4869-83D7-37B1EA2838AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>waves #intersects</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltDnDiag">
+              <a:fgClr>
+                <a:srgbClr val="70AD47"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-7914-4869-83D7-37B1EA2838AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="455995136"/>
+        <c:axId val="455994808"/>
+      </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1238,7 +1576,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bushy-base</c:v>
+                  <c:v>bushy-base time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1315,7 +1653,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0FB5-4E9E-B484-73CFA8E99F7F}"/>
+              <c16:uniqueId val="{00000003-7914-4869-83D7-37B1EA2838AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1324,11 +1662,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>waves</c:v>
+                  <c:v>waves-share time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1383,7 +1721,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:f>Sheet1!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1408,7 +1746,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-0FB5-4E9E-B484-73CFA8E99F7F}"/>
+              <c16:uniqueId val="{00000005-7914-4869-83D7-37B1EA2838AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1417,11 +1755,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>one-share</c:v>
+                  <c:v>one-share time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1476,7 +1814,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$6</c:f>
+              <c:f>Sheet1!$H$2:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1501,7 +1839,76 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-0FB5-4E9E-B484-73CFA8E99F7F}"/>
+              <c16:uniqueId val="{00000007-7914-4869-83D7-37B1EA2838AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>waves time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>44.11978354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.341436389999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.064709863000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.984604702999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.314652165999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-7914-4869-83D7-37B1EA2838AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1518,287 +1925,6 @@
         <c:axId val="567292096"/>
         <c:axId val="567290528"/>
         <c:extLst/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>86</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-0FB5-4E9E-B484-73CFA8E99F7F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>210</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-0FB5-4E9E-B484-73CFA8E99F7F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$2:$G$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>177</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-0FB5-4E9E-B484-73CFA8E99F7F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="398392016"/>
-        <c:axId val="398390048"/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="567292096"/>
@@ -2046,10 +2172,10 @@
         </c:txPr>
         <c:crossAx val="567292096"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="398390048"/>
+        <c:axId val="455994808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,12 +2212,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398392016"/>
+        <c:crossAx val="455995136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="398392016"/>
+        <c:axId val="455995136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2101,12 +2227,3690 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="398390048"/>
+        <c:crossAx val="455994808"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="square"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="diamond"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="triangle"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="x"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="plus"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="x"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="star"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="plus"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="triangle"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="diamond"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="diamond"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="square"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="plus"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="star"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="square"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="diamond"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="triangle"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="x"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="39"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="40"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="41"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="42"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="43"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="44"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="45"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="46"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="47"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="48"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bushy-base time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>49.692427786000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.140539781000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.298804529000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.191375235000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FB8B-4275-A6D7-302A3BF932BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>waves time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>44.11978354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.341436389999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.064709863000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.984604702999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.314652165999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-FB8B-4275-A6D7-302A3BF932BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>waves-share time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>26.782364482999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.054103974</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.584903461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.244036875999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.486546479999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-FB8B-4275-A6D7-302A3BF932BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>one-share time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>22.338063042999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2352813660000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6804844859999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.424119031</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.126754095999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-FB8B-4275-A6D7-302A3BF932BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="567292096"/>
+        <c:axId val="567290528"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="567292096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Title</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="567290528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="567290528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Title</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="567292096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="square"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="diamond"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="triangle"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="x"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="plus"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="x"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="star"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="plus"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="triangle"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="diamond"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="diamond"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="square"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="plus"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="star"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="square"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="diamond"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="triangle"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="x"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="39"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="40"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="41"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="42"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="43"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="44"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="45"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="46"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="47"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="48"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bushy-base #intersects</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F0CF-4C66-98AF-6E2395E73952}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>waves #intersects</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F0CF-4C66-98AF-6E2395E73952}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>waves-share #intersects</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-F0CF-4C66-98AF-6E2395E73952}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>one-share #intersects</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-F0CF-4C66-98AF-6E2395E73952}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="567292096"/>
+        <c:axId val="567290528"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="567292096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Title</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="567290528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="567290528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Title</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="567292096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2180,6 +5984,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2735,7 +6619,1061 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="147" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="147" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
@@ -2750,7 +7688,61 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9293311" cy="6075405"/>
+    <xdr:ext cx="9304694" cy="6084337"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304694" cy="6084337"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304694" cy="6084337"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -2774,49 +7766,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Chart1"/>
-      <sheetName val="Chart2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="212">
-          <cell r="A212">
-            <v>26.782364482999999</v>
-          </cell>
-        </row>
-        <row r="423">
-          <cell r="A423">
-            <v>15.054103974</v>
-          </cell>
-        </row>
-        <row r="634">
-          <cell r="A634">
-            <v>12.584903461</v>
-          </cell>
-        </row>
-        <row r="845">
-          <cell r="A845">
-            <v>12.244036875999999</v>
-          </cell>
-        </row>
-        <row r="1056">
-          <cell r="A1056">
-            <v>12.486546479999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2854,7 +7803,93 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Chart1"/>
+      <sheetName val="Chart2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="88">
+          <cell r="A88">
+            <v>44.11978354</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="A175">
+            <v>24.341436389999998</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="A262">
+            <v>19.064709863000001</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="A349">
+            <v>20.984604702999999</v>
+          </cell>
+        </row>
+        <row r="436">
+          <cell r="A436">
+            <v>20.314652165999998</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Chart1"/>
+      <sheetName val="Chart2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="212">
+          <cell r="A212">
+            <v>26.782364482999999</v>
+          </cell>
+        </row>
+        <row r="423">
+          <cell r="A423">
+            <v>15.054103974</v>
+          </cell>
+        </row>
+        <row r="634">
+          <cell r="A634">
+            <v>12.584903461</v>
+          </cell>
+        </row>
+        <row r="845">
+          <cell r="A845">
+            <v>12.244036875999999</v>
+          </cell>
+        </row>
+        <row r="1056">
+          <cell r="A1056">
+            <v>12.486546479999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3410,38 +8445,561 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride3.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <f>[2]Sheet1!$A$89</f>
+        <f>[1]Sheet1!$A$89</f>
         <v>49.692427786000003</v>
       </c>
       <c r="C2">
@@ -3449,28 +9007,35 @@
         <v>86</v>
       </c>
       <c r="D2">
-        <f>[1]Sheet1!$A$212</f>
+        <f>[2]Sheet1!$A$88</f>
+        <v>44.11978354</v>
+      </c>
+      <c r="E2">
+        <v>86</v>
+      </c>
+      <c r="F2">
+        <f>[3]Sheet1!$A$212</f>
         <v>26.782364482999999</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <f>212-2</f>
         <v>210</v>
       </c>
-      <c r="F2">
-        <f>[3]Sheet1!$A$89</f>
+      <c r="H2">
+        <f>[4]Sheet1!$A$89</f>
         <v>22.338063042999998</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2*2</f>
         <v>2</v>
       </c>
       <c r="B3">
-        <f>[2]Sheet1!$A$177</f>
+        <f>[1]Sheet1!$A$177</f>
         <v>28.140539781000001</v>
       </c>
       <c r="C3">
@@ -3478,28 +9043,35 @@
         <v>86</v>
       </c>
       <c r="D3">
-        <f>[1]Sheet1!$A$423</f>
+        <f>[2]Sheet1!$A$175</f>
+        <v>24.341436389999998</v>
+      </c>
+      <c r="E3">
+        <v>86</v>
+      </c>
+      <c r="F3">
+        <f>[3]Sheet1!$A$423</f>
         <v>15.054103974</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <f>423-213</f>
         <v>210</v>
       </c>
-      <c r="F3">
-        <f>[3]Sheet1!$A$187</f>
+      <c r="H3">
+        <f>[4]Sheet1!$A$187</f>
         <v>8.2352813660000006</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3*2</f>
         <v>4</v>
       </c>
       <c r="B4">
-        <f>[2]Sheet1!$A$265</f>
+        <f>[1]Sheet1!$A$265</f>
         <v>20.298804529000002</v>
       </c>
       <c r="C4">
@@ -3507,27 +9079,34 @@
         <v>86</v>
       </c>
       <c r="D4">
-        <f>[1]Sheet1!$A$634</f>
+        <f>[2]Sheet1!$A$262</f>
+        <v>19.064709863000001</v>
+      </c>
+      <c r="E4">
+        <v>86</v>
+      </c>
+      <c r="F4">
+        <f>[3]Sheet1!$A$634</f>
         <v>12.584903461</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>210</v>
       </c>
-      <c r="F4">
-        <f>[3]Sheet1!$A$318</f>
+      <c r="H4">
+        <f>[4]Sheet1!$A$318</f>
         <v>9.6804844859999992</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>A4*2</f>
         <v>8</v>
       </c>
       <c r="B5">
-        <f>[2]Sheet1!$A$353</f>
+        <f>[1]Sheet1!$A$353</f>
         <v>15.191375235000001</v>
       </c>
       <c r="C5">
@@ -3535,37 +9114,51 @@
         <v>86</v>
       </c>
       <c r="D5">
-        <f>[1]Sheet1!$A$845</f>
+        <f>[2]Sheet1!$A$349</f>
+        <v>20.984604702999999</v>
+      </c>
+      <c r="E5">
+        <v>86</v>
+      </c>
+      <c r="F5">
+        <f>[3]Sheet1!$A$845</f>
         <v>12.244036875999999</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>210</v>
       </c>
-      <c r="F5">
-        <f>[3]Sheet1!$A$480</f>
+      <c r="H5">
+        <f>[4]Sheet1!$A$480</f>
         <v>9.424119031</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>A5*2</f>
         <v>16</v>
       </c>
       <c r="D6">
-        <f>[1]Sheet1!$A$1056</f>
+        <f>[2]Sheet1!$A$436</f>
+        <v>20.314652165999998</v>
+      </c>
+      <c r="E6">
+        <v>86</v>
+      </c>
+      <c r="F6">
+        <f>[3]Sheet1!$A$1056</f>
         <v>12.486546479999999</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>210</v>
       </c>
-      <c r="F6">
-        <f>[3]Sheet1!$A$659</f>
+      <c r="H6">
+        <f>[4]Sheet1!$A$659</f>
         <v>18.126754095999999</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>177</v>
       </c>
     </row>

--- a/benchmarks/parallel-multi-intersect/compare.xlsx
+++ b/benchmarks/parallel-multi-intersect/compare.xlsx
@@ -24,6 +24,7 @@
     <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1302,10 +1303,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>86</c:v>
                 </c:pt>
@@ -1316,6 +1317,9 @@
                   <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>86</c:v>
                 </c:pt>
               </c:numCache>
@@ -1387,19 +1391,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>210</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>210</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>210</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>210</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1476,13 +1480,13 @@
                   <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>129</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>177</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1631,21 +1635,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>49.692427786000003</c:v>
+                  <c:v>56.765168883999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.140539781000001</c:v>
+                  <c:v>30.683911547000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.298804529000002</c:v>
+                  <c:v>26.200123294000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.191375235000001</c:v>
+                  <c:v>17.269520518</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.035961767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1726,19 +1733,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>26.782364482999999</c:v>
+                  <c:v>11.574720571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.054103974</c:v>
+                  <c:v>12.163192228</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.584903461</c:v>
+                  <c:v>11.340934165</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.244036875999999</c:v>
+                  <c:v>11.460609899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.486546479999999</c:v>
+                  <c:v>12.950404886999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1819,19 +1826,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>22.338063042999998</c:v>
+                  <c:v>13.347448742999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2352813660000006</c:v>
+                  <c:v>8.7861773309999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6804844859999992</c:v>
+                  <c:v>8.6034714220000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.424119031</c:v>
+                  <c:v>10.600948846</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.126754095999999</c:v>
+                  <c:v>39.065845742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1888,19 +1895,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>44.11978354</c:v>
+                  <c:v>13.615709262999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.341436389999998</c:v>
+                  <c:v>23.276559454000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.064709863000001</c:v>
+                  <c:v>19.999344011000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.984604702999999</c:v>
+                  <c:v>16.601160334999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.314652165999998</c:v>
+                  <c:v>18.121898926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3505,21 +3512,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>49.692427786000003</c:v>
+                  <c:v>56.765168883999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.140539781000001</c:v>
+                  <c:v>30.683911547000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.298804529000002</c:v>
+                  <c:v>26.200123294000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.191375235000001</c:v>
+                  <c:v>17.269520518</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.035961767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3600,19 +3610,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>44.11978354</c:v>
+                  <c:v>13.615709262999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.341436389999998</c:v>
+                  <c:v>23.276559454000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.064709863000001</c:v>
+                  <c:v>19.999344011000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.984604702999999</c:v>
+                  <c:v>16.601160334999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.314652165999998</c:v>
+                  <c:v>18.121898926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3693,19 +3703,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>26.782364482999999</c:v>
+                  <c:v>11.574720571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.054103974</c:v>
+                  <c:v>12.163192228</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.584903461</c:v>
+                  <c:v>11.340934165</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.244036875999999</c:v>
+                  <c:v>11.460609899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.486546479999999</c:v>
+                  <c:v>12.950404886999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3786,19 +3796,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>22.338063042999998</c:v>
+                  <c:v>13.347448742999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2352813660000006</c:v>
+                  <c:v>8.7861773309999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6804844859999992</c:v>
+                  <c:v>8.6034714220000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.424119031</c:v>
+                  <c:v>10.600948846</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.126754095999999</c:v>
+                  <c:v>39.065845742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5343,10 +5353,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>86</c:v>
                 </c:pt>
@@ -5357,6 +5367,9 @@
                   <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>86</c:v>
                 </c:pt>
               </c:numCache>
@@ -5532,19 +5545,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>210</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>210</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>210</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>210</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5631,13 +5644,13 @@
                   <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>129</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>177</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7688,7 +7701,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304694" cy="6084337"/>
+    <xdr:ext cx="9293311" cy="6075405"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -7715,7 +7728,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304694" cy="6084337"/>
+    <xdr:ext cx="9293311" cy="6075405"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -7777,22 +7790,27 @@
       <sheetData sheetId="0">
         <row r="89">
           <cell r="A89">
-            <v>49.692427786000003</v>
+            <v>56.765168883999998</v>
           </cell>
         </row>
         <row r="177">
           <cell r="A177">
-            <v>28.140539781000001</v>
+            <v>30.683911547000001</v>
           </cell>
         </row>
         <row r="265">
           <cell r="A265">
-            <v>20.298804529000002</v>
+            <v>26.200123294000001</v>
           </cell>
         </row>
         <row r="353">
           <cell r="A353">
-            <v>15.191375235000001</v>
+            <v>17.269520518</v>
+          </cell>
+        </row>
+        <row r="441">
+          <cell r="A441">
+            <v>18.035961767</v>
           </cell>
         </row>
       </sheetData>
@@ -7815,27 +7833,27 @@
       <sheetData sheetId="0">
         <row r="88">
           <cell r="A88">
-            <v>44.11978354</v>
+            <v>13.615709262999999</v>
           </cell>
         </row>
         <row r="175">
           <cell r="A175">
-            <v>24.341436389999998</v>
+            <v>23.276559454000001</v>
           </cell>
         </row>
         <row r="262">
           <cell r="A262">
-            <v>19.064709863000001</v>
+            <v>19.999344011000002</v>
           </cell>
         </row>
         <row r="349">
           <cell r="A349">
-            <v>20.984604702999999</v>
+            <v>16.601160334999999</v>
           </cell>
         </row>
         <row r="436">
           <cell r="A436">
-            <v>20.314652165999998</v>
+            <v>18.121898926</v>
           </cell>
         </row>
       </sheetData>
@@ -7856,29 +7874,29 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="212">
-          <cell r="A212">
-            <v>26.782364482999999</v>
+        <row r="88">
+          <cell r="A88">
+            <v>11.574720571</v>
           </cell>
         </row>
-        <row r="423">
-          <cell r="A423">
-            <v>15.054103974</v>
+        <row r="259">
+          <cell r="A259">
+            <v>12.163192228</v>
           </cell>
         </row>
-        <row r="634">
-          <cell r="A634">
-            <v>12.584903461</v>
+        <row r="470">
+          <cell r="A470">
+            <v>11.340934165</v>
           </cell>
         </row>
-        <row r="845">
-          <cell r="A845">
-            <v>12.244036875999999</v>
+        <row r="761">
+          <cell r="A761">
+            <v>11.460609899</v>
           </cell>
         </row>
-        <row r="1056">
-          <cell r="A1056">
-            <v>12.486546479999999</v>
+        <row r="1212">
+          <cell r="A1212">
+            <v>12.950404886999999</v>
           </cell>
         </row>
       </sheetData>
@@ -7901,27 +7919,27 @@
       <sheetData sheetId="0">
         <row r="89">
           <cell r="A89">
-            <v>22.338063042999998</v>
+            <v>13.347448742999999</v>
           </cell>
         </row>
         <row r="187">
           <cell r="A187">
-            <v>8.2352813660000006</v>
+            <v>8.7861773309999993</v>
           </cell>
         </row>
-        <row r="318">
-          <cell r="A318">
-            <v>9.6804844859999992</v>
+        <row r="314">
+          <cell r="A314">
+            <v>8.6034714220000001</v>
           </cell>
         </row>
-        <row r="480">
-          <cell r="A480">
-            <v>9.424119031</v>
+        <row r="478">
+          <cell r="A478">
+            <v>10.600948846</v>
           </cell>
         </row>
-        <row r="659">
-          <cell r="A659">
-            <v>18.126754095999999</v>
+        <row r="693">
+          <cell r="A693">
+            <v>39.065845742</v>
           </cell>
         </row>
       </sheetData>
@@ -8954,7 +8972,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8962,7 +8980,8 @@
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -9000,7 +9019,7 @@
       </c>
       <c r="B2">
         <f>[1]Sheet1!$A$89</f>
-        <v>49.692427786000003</v>
+        <v>56.765168883999998</v>
       </c>
       <c r="C2">
         <f>89-3</f>
@@ -9008,22 +9027,21 @@
       </c>
       <c r="D2">
         <f>[2]Sheet1!$A$88</f>
-        <v>44.11978354</v>
+        <v>13.615709262999999</v>
       </c>
       <c r="E2">
         <v>86</v>
       </c>
       <c r="F2">
-        <f>[3]Sheet1!$A$212</f>
-        <v>26.782364482999999</v>
+        <f>[3]Sheet1!$A$88</f>
+        <v>11.574720571</v>
       </c>
       <c r="G2">
-        <f>212-2</f>
-        <v>210</v>
+        <v>86</v>
       </c>
       <c r="H2">
         <f>[4]Sheet1!$A$89</f>
-        <v>22.338063042999998</v>
+        <v>13.347448742999999</v>
       </c>
       <c r="I2">
         <v>86</v>
@@ -9036,7 +9054,7 @@
       </c>
       <c r="B3">
         <f>[1]Sheet1!$A$177</f>
-        <v>28.140539781000001</v>
+        <v>30.683911547000001</v>
       </c>
       <c r="C3">
         <f>175-90+1</f>
@@ -9044,22 +9062,21 @@
       </c>
       <c r="D3">
         <f>[2]Sheet1!$A$175</f>
-        <v>24.341436389999998</v>
+        <v>23.276559454000001</v>
       </c>
       <c r="E3">
         <v>86</v>
       </c>
       <c r="F3">
-        <f>[3]Sheet1!$A$423</f>
-        <v>15.054103974</v>
+        <f>[3]Sheet1!$A$259</f>
+        <v>12.163192228</v>
       </c>
       <c r="G3">
-        <f>423-213</f>
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="H3">
         <f>[4]Sheet1!$A$187</f>
-        <v>8.2352813660000006</v>
+        <v>8.7861773309999993</v>
       </c>
       <c r="I3">
         <v>96</v>
@@ -9072,7 +9089,7 @@
       </c>
       <c r="B4">
         <f>[1]Sheet1!$A$265</f>
-        <v>20.298804529000002</v>
+        <v>26.200123294000001</v>
       </c>
       <c r="C4">
         <f>263-178+1</f>
@@ -9080,24 +9097,24 @@
       </c>
       <c r="D4">
         <f>[2]Sheet1!$A$262</f>
-        <v>19.064709863000001</v>
+        <v>19.999344011000002</v>
       </c>
       <c r="E4">
         <v>86</v>
       </c>
       <c r="F4">
-        <f>[3]Sheet1!$A$634</f>
-        <v>12.584903461</v>
+        <f>[3]Sheet1!$A$470</f>
+        <v>11.340934165</v>
       </c>
       <c r="G4">
         <v>210</v>
       </c>
       <c r="H4">
-        <f>[4]Sheet1!$A$318</f>
-        <v>9.6804844859999992</v>
+        <f>[4]Sheet1!$A$314</f>
+        <v>8.6034714220000001</v>
       </c>
       <c r="I4">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -9107,7 +9124,7 @@
       </c>
       <c r="B5">
         <f>[1]Sheet1!$A$353</f>
-        <v>15.191375235000001</v>
+        <v>17.269520518</v>
       </c>
       <c r="C5">
         <f>351-266+1</f>
@@ -9115,24 +9132,24 @@
       </c>
       <c r="D5">
         <f>[2]Sheet1!$A$349</f>
-        <v>20.984604702999999</v>
+        <v>16.601160334999999</v>
       </c>
       <c r="E5">
         <v>86</v>
       </c>
       <c r="F5">
-        <f>[3]Sheet1!$A$845</f>
-        <v>12.244036875999999</v>
+        <f>[3]Sheet1!$A$761</f>
+        <v>11.460609899</v>
       </c>
       <c r="G5">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="H5">
-        <f>[4]Sheet1!$A$480</f>
-        <v>9.424119031</v>
+        <f>[4]Sheet1!$A$478</f>
+        <v>10.600948846</v>
       </c>
       <c r="I5">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -9140,26 +9157,33 @@
         <f>A5*2</f>
         <v>16</v>
       </c>
+      <c r="B6">
+        <f>[1]Sheet1!$A$441</f>
+        <v>18.035961767</v>
+      </c>
+      <c r="C6">
+        <v>86</v>
+      </c>
       <c r="D6">
         <f>[2]Sheet1!$A$436</f>
-        <v>20.314652165999998</v>
+        <v>18.121898926</v>
       </c>
       <c r="E6">
         <v>86</v>
       </c>
       <c r="F6">
-        <f>[3]Sheet1!$A$1056</f>
-        <v>12.486546479999999</v>
+        <f>[3]Sheet1!$A$1212</f>
+        <v>12.950404886999999</v>
       </c>
       <c r="G6">
-        <v>210</v>
+        <v>450</v>
       </c>
       <c r="H6">
-        <f>[4]Sheet1!$A$659</f>
-        <v>18.126754095999999</v>
+        <f>[4]Sheet1!$A$693</f>
+        <v>39.065845742</v>
       </c>
       <c r="I6">
-        <v>177</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
